--- a/booking.xlsx
+++ b/booking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\7thSemester\Databases\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8067764C-BD8E-4A57-BFB6-B425A32D25FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94696C1-A178-4BE7-B71A-8874419EA528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>booking_id</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>cash</t>
+  </si>
+  <si>
+    <t>debit card</t>
+  </si>
+  <si>
+    <t>credit card</t>
   </si>
 </sst>
 </file>
@@ -96,9 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,6 +401,7 @@
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="7" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -465,6 +474,76 @@
         <v>1072680</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44866</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44871</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44854</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>569784126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>360</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44852</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44858</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>360</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44844</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>457522463</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/booking.xlsx
+++ b/booking.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\7thSemester\Databases\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94696C1-A178-4BE7-B71A-8874419EA528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9DAE6D-43E3-4D35-91D7-219D59F8C04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>booking_id</t>
   </si>
@@ -63,10 +74,10 @@
     <t>cash</t>
   </si>
   <si>
-    <t>debit card</t>
-  </si>
-  <si>
-    <t>credit card</t>
+    <t>debit_card</t>
+  </si>
+  <si>
+    <t>credit_card</t>
   </si>
 </sst>
 </file>
@@ -387,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,34 +455,35 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1">
-        <v>44919</v>
+        <v>44655</v>
       </c>
       <c r="D2" s="1">
-        <v>44923</v>
-      </c>
-      <c r="E2">
-        <v>70</v>
+        <v>44658</v>
+      </c>
+      <c r="E2" s="2">
+        <f xml:space="preserve"> (20*B2)/100</f>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1">
-        <v>44910</v>
+        <v>44634</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>1072680</v>
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>153428961</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -479,34 +491,35 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C3" s="1">
-        <v>44866</v>
+        <v>44919</v>
       </c>
       <c r="D3" s="1">
-        <v>44871</v>
+        <v>44923</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <f xml:space="preserve"> (20*B3)/100</f>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G3" s="1">
-        <v>44854</v>
+        <v>44910</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3" s="2">
-        <v>569784126</v>
+      <c r="K3">
+        <v>1072680</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -514,37 +527,183 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1">
+        <v>44866</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44871</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E8" si="0" xml:space="preserve"> (20*B4)/100</f>
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44854</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>569784126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>240</v>
+      </c>
+      <c r="C5" s="1">
         <v>44852</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>44858</v>
       </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>360</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>240</v>
+      </c>
+      <c r="G5" s="1">
         <v>44844</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K5">
         <v>457522463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>600</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44762</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44767</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44747</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>1072111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>780</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44775</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44781</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="F7">
+        <v>780</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44754</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>151546513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>270</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44733</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44736</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <v>270</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44713</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1072903</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/booking.xlsx
+++ b/booking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\7thSemester\Databases\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9DAE6D-43E3-4D35-91D7-219D59F8C04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684F112D-AB28-489A-A52F-085B40B9A9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8004" yWindow="504" windowWidth="13704" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>booking_id</t>
   </si>
@@ -120,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +469,7 @@
         <v>120</v>
       </c>
       <c r="G2" s="1">
-        <v>44634</v>
+        <v>44641</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -507,7 +505,7 @@
         <v>400</v>
       </c>
       <c r="G3" s="1">
-        <v>44910</v>
+        <v>44905</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -519,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>1072680</v>
+        <v>107268069</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -536,14 +534,14 @@
         <v>44871</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E8" si="0" xml:space="preserve"> (20*B4)/100</f>
+        <f t="shared" ref="E4:E14" si="0" xml:space="preserve"> (20*B4)/100</f>
         <v>60</v>
       </c>
       <c r="F4">
         <v>300</v>
       </c>
       <c r="G4" s="1">
-        <v>44854</v>
+        <v>44852</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -579,7 +577,7 @@
         <v>240</v>
       </c>
       <c r="G5" s="1">
-        <v>44844</v>
+        <v>44838</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -615,7 +613,7 @@
         <v>600</v>
       </c>
       <c r="G6" s="1">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -627,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="K6">
-        <v>1072111</v>
+        <v>107211145</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -651,7 +649,7 @@
         <v>780</v>
       </c>
       <c r="G7" s="1">
-        <v>44754</v>
+        <v>44761</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -687,7 +685,7 @@
         <v>270</v>
       </c>
       <c r="G8" s="1">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -699,7 +697,223 @@
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>1072903</v>
+        <v>107290304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>350</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44968</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44973</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44954</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>121236589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>280</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44970</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44974</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44956</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>107265354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44987</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44990</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44973</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>107275663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>240</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45008</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45011</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44994</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>266558548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>420</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45021</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45028</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45007</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>487841345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>360</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45030</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45036</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45016</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>106123465</v>
       </c>
     </row>
   </sheetData>

--- a/booking.xlsx
+++ b/booking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\GitHub\hotel_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684F112D-AB28-489A-A52F-085B40B9A9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122946D0-9018-4427-B983-B87014C7E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8004" yWindow="504" windowWidth="13704" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32535" yWindow="1815" windowWidth="21690" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>booking_id</t>
   </si>
@@ -111,14 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +459,7 @@
       <c r="D2" s="1">
         <v>44658</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <f xml:space="preserve"> (20*B2)/100</f>
         <v>24</v>
       </c>
@@ -480,7 +478,7 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>153428961</v>
       </c>
     </row>
@@ -533,8 +531,8 @@
       <c r="D4" s="1">
         <v>44871</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E14" si="0" xml:space="preserve"> (20*B4)/100</f>
+      <c r="E4">
+        <f t="shared" ref="E4:E15" si="0" xml:space="preserve"> (20*B4)/100</f>
         <v>60</v>
       </c>
       <c r="F4">
@@ -569,7 +567,7 @@
       <c r="D5" s="1">
         <v>44858</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -605,7 +603,7 @@
       <c r="D6" s="1">
         <v>44767</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -641,7 +639,7 @@
       <c r="D7" s="1">
         <v>44781</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
@@ -660,7 +658,7 @@
       <c r="J7">
         <v>2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>151546513</v>
       </c>
     </row>
@@ -696,7 +694,7 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>107290304</v>
       </c>
     </row>
@@ -914,6 +912,42 @@
       </c>
       <c r="K14">
         <v>106123465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>320</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44930</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44932</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>64</v>
+      </c>
+      <c r="G15" s="1">
+        <v>44916</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>107275663</v>
       </c>
     </row>
   </sheetData>

--- a/booking.xlsx
+++ b/booking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\GitHub\hotel_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122946D0-9018-4427-B983-B87014C7E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188358ED-720B-4433-B7BD-02FCBB6C6997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32535" yWindow="1815" windowWidth="21690" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40755" yWindow="1710" windowWidth="21690" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,7 +932,7 @@
         <v>64</v>
       </c>
       <c r="F15">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>44916</v>

--- a/booking.xlsx
+++ b/booking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\GitHub\hotel_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188358ED-720B-4433-B7BD-02FCBB6C6997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A786E792-9E1E-4EA0-A6E5-199BCD6DCE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40755" yWindow="1710" windowWidth="21690" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>booking_id</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>44871</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E15" si="0" xml:space="preserve"> (20*B4)/100</f>
+        <f t="shared" ref="E4:E16" si="0" xml:space="preserve"> (20*B4)/100</f>
         <v>60</v>
       </c>
       <c r="F4">
@@ -948,6 +948,42 @@
       </c>
       <c r="K15">
         <v>107275663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>320</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44930</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44932</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>44916</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>569784126</v>
       </c>
     </row>
   </sheetData>
